--- a/data/trans_orig/P1420-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE423996-5362-4CA4-98AA-FD2805072A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6CB2A7-2FE8-43FD-B134-30EB3A6A5416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5360600-2DD5-43A2-9102-121C5583C8DB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F295F0C5-6954-4976-A452-7644D9FFD091}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="302">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -106,750 +106,792 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>99,31%</t>
   </si>
   <si>
@@ -862,18 +904,12 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>99,48%</t>
-  </si>
-  <si>
     <t>99,58%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
@@ -889,13 +925,7 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
     <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -1325,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCBB16E-9EF4-4E03-9553-18BF341856F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA26234-E2CE-46F1-BECF-13C5209551EB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2127,10 +2157,10 @@
         <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2175,13 @@
         <v>665774</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H18" s="7">
         <v>615</v>
@@ -2160,13 +2190,13 @@
         <v>664377</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>1238</v>
@@ -2175,13 +2205,13 @@
         <v>1330151</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,7 +2267,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2255,37 +2285,37 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2330,13 @@
         <v>7712</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -2315,13 +2345,13 @@
         <v>12127</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -2330,13 +2360,13 @@
         <v>19839</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2381,13 @@
         <v>204906</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>200</v>
@@ -2366,13 +2396,13 @@
         <v>207464</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>389</v>
@@ -2381,13 +2411,13 @@
         <v>412370</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,7 +2473,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2461,37 +2491,37 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2536,13 @@
         <v>909</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2521,13 +2551,13 @@
         <v>3103</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2536,13 +2566,13 @@
         <v>4012</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,10 +2587,10 @@
         <v>273072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>47</v>
@@ -2572,13 +2602,13 @@
         <v>274993</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>525</v>
@@ -2587,13 +2617,13 @@
         <v>548065</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,7 +2679,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2712,13 +2742,13 @@
         <v>5803</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2763,13 +2793,13 @@
         <v>656985</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H30" s="7">
         <v>627</v>
@@ -2778,13 +2808,13 @@
         <v>684231</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>1239</v>
@@ -2793,13 +2823,13 @@
         <v>1341216</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2885,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2873,7 +2903,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2888,7 +2918,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2918,13 +2948,13 @@
         <v>5580</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -2933,13 +2963,13 @@
         <v>7647</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -2948,13 +2978,13 @@
         <v>13226</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2999,13 @@
         <v>773518</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H34" s="7">
         <v>749</v>
@@ -2984,13 +3014,13 @@
         <v>814931</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M34" s="7">
         <v>1461</v>
@@ -2999,13 +3029,13 @@
         <v>1588450</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3154,13 @@
         <v>27007</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -3139,13 +3169,13 @@
         <v>55781</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M37" s="7">
         <v>79</v>
@@ -3157,10 +3187,10 @@
         <v>150</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3205,13 @@
         <v>3399772</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H38" s="7">
         <v>3243</v>
@@ -3190,28 +3220,28 @@
         <v>3499317</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M38" s="7">
         <v>6426</v>
       </c>
       <c r="N38" s="7">
-        <v>6899089</v>
+        <v>6899090</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3283,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -3267,7 +3297,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EB2423-C931-4F50-8CAB-1E1F953CFF2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA33B96-2FFA-4A05-9E6D-D7A25587A36E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3308,7 +3338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3421,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3436,7 +3466,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3451,7 +3481,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3496,13 @@
         <v>6723</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3481,13 +3511,13 @@
         <v>6294</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3496,13 +3526,13 @@
         <v>13018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3547,13 @@
         <v>287038</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>271</v>
@@ -3532,13 +3562,13 @@
         <v>282409</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>531</v>
@@ -3547,13 +3577,13 @@
         <v>569446</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3705,10 +3735,10 @@
         <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,7 +3756,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>38</v>
@@ -3741,7 +3771,7 @@
         <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
@@ -3753,13 +3783,13 @@
         <v>1022519</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3863,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3848,7 +3878,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3863,7 +3893,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3908,13 @@
         <v>1803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3899,7 +3929,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3929,10 +3959,10 @@
         <v>316762</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>47</v>
@@ -3944,10 +3974,10 @@
         <v>335259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>47</v>
@@ -3959,13 +3989,13 @@
         <v>652021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,7 +4069,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4054,7 +4084,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4069,7 +4099,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,10 +4114,10 @@
         <v>5543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>193</v>
@@ -4102,10 +4132,10 @@
         <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4114,13 +4144,13 @@
         <v>16486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4165,13 @@
         <v>364421</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="H18" s="7">
         <v>349</v>
@@ -4150,13 +4180,13 @@
         <v>376341</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7">
         <v>698</v>
@@ -4165,13 +4195,13 @@
         <v>740761</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,7 +4257,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4245,7 +4275,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4260,7 +4290,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4296,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4305,13 +4335,13 @@
         <v>1053</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -4320,13 +4350,13 @@
         <v>1053</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4374,7 @@
         <v>47</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>38</v>
@@ -4356,10 +4386,10 @@
         <v>217534</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>47</v>
@@ -4371,10 +4401,10 @@
         <v>428755</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>47</v>
@@ -4433,7 +4463,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4451,7 +4481,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4466,7 +4496,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4481,7 +4511,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4526,13 @@
         <v>4942</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4511,13 +4541,13 @@
         <v>3516</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4526,13 +4556,13 @@
         <v>8458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4577,13 @@
         <v>258181</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>260</v>
@@ -4562,13 +4592,13 @@
         <v>269599</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -4577,13 +4607,13 @@
         <v>527780</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,7 +4669,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4657,7 +4687,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4687,7 +4717,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4732,13 @@
         <v>9081</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -4717,13 +4747,13 @@
         <v>9013</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -4732,13 +4762,13 @@
         <v>18094</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4783,13 @@
         <v>647477</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="H30" s="7">
         <v>638</v>
@@ -4768,13 +4798,13 @@
         <v>682281</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="M30" s="7">
         <v>1210</v>
@@ -4783,13 +4813,13 @@
         <v>1329758</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,7 +4875,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4863,7 +4893,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4878,7 +4908,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4908,13 +4938,13 @@
         <v>5440</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -4923,13 +4953,13 @@
         <v>10943</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -4938,13 +4968,13 @@
         <v>16383</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4989,13 @@
         <v>773143</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="H34" s="7">
         <v>746</v>
@@ -4974,13 +5004,13 @@
         <v>815224</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="M34" s="7">
         <v>1492</v>
@@ -4989,13 +5019,13 @@
         <v>1588367</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5144,13 @@
         <v>33533</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -5129,13 +5159,13 @@
         <v>45950</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="M37" s="7">
         <v>70</v>
@@ -5144,13 +5174,13 @@
         <v>79483</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5195,13 @@
         <v>3360817</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="H38" s="7">
         <v>3298</v>
@@ -5180,13 +5210,13 @@
         <v>3498592</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>6499</v>
@@ -5195,13 +5225,13 @@
         <v>6859409</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,7 +5287,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5281,7 +5311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB425337-AE31-43F0-8131-F2D9D5ECE167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBB34B1-7E65-42B2-891C-80DC72C7DB79}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5298,7 +5328,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5408,7 +5438,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>38</v>
@@ -5423,7 +5453,7 @@
         <v>47</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -5438,7 +5468,7 @@
         <v>47</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>38</v>
@@ -5462,7 +5492,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5477,7 +5507,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5492,7 +5522,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,7 +5543,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5528,7 +5558,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5543,7 +5573,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,7 +5644,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -5629,7 +5659,7 @@
         <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>38</v>
@@ -5644,7 +5674,7 @@
         <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -5668,7 +5698,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5683,7 +5713,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5698,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,7 +5749,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5734,7 +5764,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5749,7 +5779,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,7 +5850,7 @@
         <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -5835,7 +5865,7 @@
         <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -5850,7 +5880,7 @@
         <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>38</v>
@@ -5874,7 +5904,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5889,7 +5919,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5904,7 +5934,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,7 +5955,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5940,7 +5970,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5955,7 +5985,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,7 +6056,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>38</v>
@@ -6056,7 +6086,7 @@
         <v>47</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>38</v>
@@ -6080,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6110,7 +6140,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,7 +6161,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6161,7 +6191,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,7 +6247,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6232,7 +6262,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -6247,7 +6277,7 @@
         <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -6262,7 +6292,7 @@
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>38</v>
@@ -6286,7 +6316,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6301,7 +6331,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6316,7 +6346,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,7 +6367,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6352,7 +6382,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6367,7 +6397,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,7 +6453,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6438,7 +6468,7 @@
         <v>47</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>38</v>
@@ -6453,7 +6483,7 @@
         <v>47</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>38</v>
@@ -6468,7 +6498,7 @@
         <v>47</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>38</v>
@@ -6492,7 +6522,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6507,7 +6537,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6522,7 +6552,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,7 +6573,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6558,7 +6588,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6573,7 +6603,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,7 +6659,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6659,7 +6689,7 @@
         <v>47</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>38</v>
@@ -6674,7 +6704,7 @@
         <v>47</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>38</v>
@@ -6728,7 +6758,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,7 +6809,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6865,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6850,7 +6880,7 @@
         <v>47</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>38</v>
@@ -6865,7 +6895,7 @@
         <v>47</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -6880,7 +6910,7 @@
         <v>47</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>38</v>
@@ -6904,7 +6934,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6919,7 +6949,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6934,7 +6964,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,7 +6985,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6970,7 +7000,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6985,7 +7015,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,7 +7086,7 @@
         <v>47</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>38</v>
@@ -7071,7 +7101,7 @@
         <v>47</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>38</v>
@@ -7080,13 +7110,13 @@
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>38</v>
@@ -7125,7 +7155,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7140,7 +7170,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,7 +7206,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7191,7 +7221,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,7 +7263,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -7247,7 +7277,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1420-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6CB2A7-2FE8-43FD-B134-30EB3A6A5416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9B425B5-549D-44E0-8393-E517113A15D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F295F0C5-6954-4976-A452-7644D9FFD091}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{174D1515-8625-4B20-8D53-02C5C011DB68}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="295">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -112,802 +112,781 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -1355,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA26234-E2CE-46F1-BECF-13C5209551EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4546B5D8-5F11-4638-9F47-9CE23F1396E3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2157,10 +2136,10 @@
         <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2154,13 @@
         <v>665774</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18" s="7">
         <v>615</v>
@@ -2190,13 +2169,13 @@
         <v>664377</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>1238</v>
@@ -2205,13 +2184,13 @@
         <v>1330151</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,7 +2246,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2285,7 +2264,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2300,7 +2279,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2315,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2309,13 @@
         <v>7712</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -2345,13 +2324,13 @@
         <v>12127</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -2360,13 +2339,13 @@
         <v>19839</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2360,13 @@
         <v>204906</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>200</v>
@@ -2396,13 +2375,13 @@
         <v>207464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>389</v>
@@ -2411,13 +2390,13 @@
         <v>412370</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,7 +2452,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2491,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2506,7 +2485,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2521,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2515,13 @@
         <v>909</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2551,13 +2530,13 @@
         <v>3103</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2566,13 +2545,13 @@
         <v>4012</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,10 +2566,10 @@
         <v>273072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>47</v>
@@ -2602,13 +2581,13 @@
         <v>274993</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M26" s="7">
         <v>525</v>
@@ -2617,13 +2596,13 @@
         <v>548065</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,7 +2658,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2742,13 +2721,13 @@
         <v>5803</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2757,13 +2736,13 @@
         <v>9622</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -2772,13 +2751,13 @@
         <v>15425</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2772,13 @@
         <v>656985</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H30" s="7">
         <v>627</v>
@@ -2808,10 +2787,10 @@
         <v>684231</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>122</v>
@@ -2966,7 +2945,7 @@
         <v>132</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>133</v>
@@ -2978,13 +2957,13 @@
         <v>13226</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2978,13 @@
         <v>773518</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H34" s="7">
         <v>749</v>
@@ -3014,13 +2993,13 @@
         <v>814931</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M34" s="7">
         <v>1461</v>
@@ -3029,13 +3008,13 @@
         <v>1588450</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3088,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3124,7 +3103,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3139,7 +3118,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3133,13 @@
         <v>27007</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -3169,13 +3148,13 @@
         <v>55781</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M37" s="7">
         <v>79</v>
@@ -3184,13 +3163,13 @@
         <v>82788</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,10 +3184,10 @@
         <v>3399772</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>152</v>
@@ -3220,28 +3199,28 @@
         <v>3499317</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M38" s="7">
         <v>6426</v>
       </c>
       <c r="N38" s="7">
-        <v>6899090</v>
+        <v>6899089</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3262,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -3321,7 +3300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA33B96-2FFA-4A05-9E6D-D7A25587A36E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9B95C-996A-48C0-B746-35472461AB76}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3466,7 +3445,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3481,7 +3460,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3475,13 @@
         <v>6723</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3511,13 +3490,13 @@
         <v>6294</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3526,13 +3505,13 @@
         <v>13018</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3526,13 @@
         <v>287038</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>271</v>
@@ -3562,13 +3541,13 @@
         <v>282409</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>531</v>
@@ -3577,13 +3556,13 @@
         <v>569446</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,7 +3702,7 @@
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3735,10 +3714,10 @@
         <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,7 +3735,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>38</v>
@@ -3771,7 +3750,7 @@
         <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
@@ -3783,13 +3762,13 @@
         <v>1022519</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3842,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3878,7 +3857,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3893,7 +3872,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3887,13 @@
         <v>1803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3929,7 +3908,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3944,7 +3923,7 @@
         <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,10 +3938,10 @@
         <v>316762</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>47</v>
@@ -3974,10 +3953,10 @@
         <v>335259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>47</v>
@@ -3989,13 +3968,13 @@
         <v>652021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4048,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4084,7 +4063,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4114,13 +4093,13 @@
         <v>5543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4129,13 +4108,13 @@
         <v>10942</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4144,13 +4123,13 @@
         <v>16486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4144,13 @@
         <v>364421</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>349</v>
@@ -4180,13 +4159,13 @@
         <v>376341</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M18" s="7">
         <v>698</v>
@@ -4195,13 +4174,13 @@
         <v>740761</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,7 +4236,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4275,7 +4254,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4290,7 +4269,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4326,7 +4305,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4335,13 +4314,13 @@
         <v>1053</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -4350,13 +4329,13 @@
         <v>1053</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4353,7 @@
         <v>47</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>38</v>
@@ -4386,10 +4365,10 @@
         <v>217534</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>47</v>
@@ -4401,10 +4380,10 @@
         <v>428755</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>47</v>
@@ -4463,7 +4442,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4481,37 +4460,37 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4505,13 @@
         <v>4942</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4541,13 +4520,13 @@
         <v>3516</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4556,13 +4535,13 @@
         <v>8458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4556,13 @@
         <v>258181</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="H26" s="7">
         <v>260</v>
@@ -4592,13 +4571,13 @@
         <v>269599</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -4607,13 +4586,13 @@
         <v>527780</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,7 +4648,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4687,7 +4666,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4717,7 +4696,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4711,13 @@
         <v>9081</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -4747,13 +4726,13 @@
         <v>9013</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -4762,13 +4741,13 @@
         <v>18094</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4762,13 @@
         <v>647477</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H30" s="7">
         <v>638</v>
@@ -4798,13 +4777,13 @@
         <v>682281</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M30" s="7">
         <v>1210</v>
@@ -4813,13 +4792,13 @@
         <v>1329758</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,7 +4872,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4938,13 +4917,13 @@
         <v>5440</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -4953,13 +4932,13 @@
         <v>10943</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -4968,13 +4947,13 @@
         <v>16383</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>254</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4983,13 @@
         <v>815224</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M34" s="7">
         <v>1492</v>
@@ -5019,13 +4998,13 @@
         <v>1588367</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,7 +5078,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5114,7 +5093,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5129,7 +5108,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5123,13 @@
         <v>33533</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -5159,13 +5138,13 @@
         <v>45950</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="M37" s="7">
         <v>70</v>
@@ -5174,13 +5153,13 @@
         <v>79483</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5174,13 @@
         <v>3360817</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H38" s="7">
         <v>3298</v>
@@ -5210,13 +5189,13 @@
         <v>3498592</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M38" s="7">
         <v>6499</v>
@@ -5225,13 +5204,13 @@
         <v>6859409</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,7 +5290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBB34B1-7E65-42B2-891C-80DC72C7DB79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7B5E63-2D9B-4833-89F5-0CF4BA3D2AD9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5328,7 +5307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5438,7 +5417,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>38</v>
@@ -5453,7 +5432,7 @@
         <v>47</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -5492,7 +5471,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5507,7 +5486,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5522,7 +5501,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,7 +5522,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5558,7 +5537,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5573,7 +5552,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,7 +5623,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -5659,7 +5638,7 @@
         <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>38</v>
@@ -5674,7 +5653,7 @@
         <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -5698,7 +5677,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5728,7 +5707,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5779,7 +5758,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,7 +5829,7 @@
         <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -5865,7 +5844,7 @@
         <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -5880,7 +5859,7 @@
         <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>38</v>
@@ -5904,7 +5883,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5919,7 +5898,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5934,7 +5913,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,7 +5934,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5970,7 +5949,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5985,7 +5964,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,7 +6035,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>38</v>
@@ -6110,7 +6089,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6140,7 +6119,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,7 +6140,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>283</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6191,7 +6170,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,7 +6226,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6262,7 +6241,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -6277,7 +6256,7 @@
         <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -6292,7 +6271,7 @@
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>38</v>
@@ -6316,7 +6295,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6331,7 +6310,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6367,7 +6346,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6382,7 +6361,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6453,7 +6432,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6468,7 +6447,7 @@
         <v>47</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>38</v>
@@ -6483,7 +6462,7 @@
         <v>47</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>38</v>
@@ -6498,7 +6477,7 @@
         <v>47</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>38</v>
@@ -6522,7 +6501,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6537,7 +6516,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6552,7 +6531,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,7 +6552,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6588,7 +6567,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6603,7 +6582,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,7 +6638,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6689,7 +6668,7 @@
         <v>47</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>38</v>
@@ -6704,7 +6683,7 @@
         <v>47</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>38</v>
@@ -6758,7 +6737,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,7 +6788,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,7 +6859,7 @@
         <v>47</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>38</v>
@@ -6895,7 +6874,7 @@
         <v>47</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -6910,7 +6889,7 @@
         <v>47</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>38</v>
@@ -6949,7 +6928,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6964,7 +6943,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,7 +6979,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7015,7 +6994,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,7 +7065,7 @@
         <v>47</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>38</v>
@@ -7101,7 +7080,7 @@
         <v>47</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>38</v>
@@ -7116,7 +7095,7 @@
         <v>47</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>38</v>
@@ -7140,7 +7119,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7155,7 +7134,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7170,7 +7149,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,7 +7170,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7206,7 +7185,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7221,7 +7200,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1420-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E39480E-7D75-458B-8DAD-419CD96C7CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6F227BE-8A37-4B6D-93D4-A8DFC4AF920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C73457E9-A512-4EA7-859A-8F151E7D9C4E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{99CFFFE6-C053-476C-9971-EE95F539FE57}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="259">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -72,12 +72,60 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -135,27 +183,18 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
     <t>0,84%</t>
   </si>
   <si>
@@ -165,604 +204,610 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
     <t>99,16%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
   </si>
   <si>
     <t>98,58%</t>
@@ -1180,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AC0018-4B38-4020-83E4-0A7FAAE04332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1179FBF4-E398-4DA5-833D-1B54B3E50D80}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1298,88 +1343,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>879</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2132</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3011</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D5" s="7">
+        <v>293859</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="I5" s="7">
+        <v>285113</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>535</v>
+      </c>
+      <c r="N5" s="7">
+        <v>578972</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,48 +1445,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1441,13 +1504,13 @@
         <v>3029</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -1456,13 +1519,13 @@
         <v>11463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1471,19 +1534,19 @@
         <v>14492</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>469</v>
@@ -1492,13 +1555,13 @@
         <v>502498</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -1507,13 +1570,13 @@
         <v>512302</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>939</v>
@@ -1522,13 +1585,13 @@
         <v>1014800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1606,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1558,13 +1621,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1573,18 +1636,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1596,13 +1659,13 @@
         <v>1028</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1611,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1626,19 +1689,19 @@
         <v>1028</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>318</v>
@@ -1647,13 +1710,13 @@
         <v>323018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -1662,13 +1725,13 @@
         <v>341020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -1677,13 +1740,13 @@
         <v>664038</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,13 +1761,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1713,13 +1776,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1728,117 +1791,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2946</v>
+        <v>2067</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9687</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="7">
         <v>12</v>
       </c>
-      <c r="I13" s="7">
-        <v>11819</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
       <c r="N13" s="7">
-        <v>14765</v>
+        <v>11754</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>623</v>
+        <v>342</v>
       </c>
       <c r="D14" s="7">
-        <v>665774</v>
+        <v>371915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>615</v>
+        <v>361</v>
       </c>
       <c r="I14" s="7">
-        <v>664377</v>
+        <v>379264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
-        <v>1238</v>
+        <v>703</v>
       </c>
       <c r="N14" s="7">
-        <v>1330151</v>
+        <v>751179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,54 +1910,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1906,13 +1969,13 @@
         <v>7712</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -1921,13 +1984,13 @@
         <v>12127</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -1936,19 +1999,19 @@
         <v>19839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>189</v>
@@ -1957,13 +2020,13 @@
         <v>204906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>200</v>
@@ -1972,13 +2035,13 @@
         <v>207464</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -1987,13 +2050,13 @@
         <v>412370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2071,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2023,13 +2086,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2038,18 +2101,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2061,13 +2124,13 @@
         <v>909</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2076,13 +2139,13 @@
         <v>3103</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2091,19 +2154,19 @@
         <v>4012</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>260</v>
@@ -2112,13 +2175,13 @@
         <v>273072</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -2127,13 +2190,13 @@
         <v>274993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>525</v>
@@ -2142,13 +2205,13 @@
         <v>548065</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2226,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2178,13 +2241,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2193,18 +2256,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2216,13 +2279,13 @@
         <v>5803</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2231,13 +2294,13 @@
         <v>9622</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -2246,19 +2309,19 @@
         <v>15425</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>612</v>
@@ -2267,13 +2330,13 @@
         <v>656985</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>627</v>
@@ -2282,13 +2345,13 @@
         <v>684231</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>1239</v>
@@ -2297,13 +2360,13 @@
         <v>1341216</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2381,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2333,13 +2396,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2348,18 +2411,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2371,13 +2434,13 @@
         <v>5580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2386,13 +2449,13 @@
         <v>7647</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2401,19 +2464,19 @@
         <v>13226</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>712</v>
@@ -2422,13 +2485,13 @@
         <v>773518</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>749</v>
@@ -2437,13 +2500,13 @@
         <v>814931</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>1461</v>
@@ -2452,13 +2515,13 @@
         <v>1588450</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2536,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -2488,13 +2551,13 @@
         <v>822578</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1473</v>
@@ -2503,13 +2566,13 @@
         <v>1601676</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2589,13 @@
         <v>27007</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -2541,13 +2604,13 @@
         <v>55781</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>79</v>
@@ -2556,19 +2619,19 @@
         <v>82788</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>3183</v>
@@ -2577,13 +2640,13 @@
         <v>3399772</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>3243</v>
@@ -2592,13 +2655,13 @@
         <v>3499317</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>6426</v>
@@ -2607,13 +2670,13 @@
         <v>6899089</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2691,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3296</v>
@@ -2643,13 +2706,13 @@
         <v>3555098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6505</v>
@@ -2658,18 +2721,18 @@
         <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2693,7 +2756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29622468-B599-45D2-879B-90256A366D0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21F1E1A-3CF8-4B3E-A261-B1B66EFAD0BF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2710,7 +2773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2817,13 +2880,13 @@
         <v>6723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2832,13 +2895,13 @@
         <v>6294</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2847,19 +2910,19 @@
         <v>13018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>260</v>
@@ -2868,13 +2931,13 @@
         <v>287038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>271</v>
@@ -2883,13 +2946,13 @@
         <v>282409</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -2898,13 +2961,13 @@
         <v>569446</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2982,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -2934,13 +2997,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -2949,18 +3012,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2972,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2987,13 +3050,13 @@
         <v>3140</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3002,19 +3065,19 @@
         <v>3140</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>475</v>
@@ -3023,13 +3086,13 @@
         <v>502575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>481</v>
@@ -3038,13 +3101,13 @@
         <v>519944</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>956</v>
@@ -3053,13 +3116,13 @@
         <v>1022519</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3137,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3089,13 +3152,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3104,18 +3167,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3127,13 +3190,13 @@
         <v>1803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3142,13 +3205,13 @@
         <v>1050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3157,19 +3220,19 @@
         <v>2853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>333</v>
@@ -3178,13 +3241,13 @@
         <v>316762</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
@@ -3193,13 +3256,13 @@
         <v>335259</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
         <v>664</v>
@@ -3208,13 +3271,13 @@
         <v>652021</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3292,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3244,13 +3307,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3259,18 +3322,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3282,13 +3345,13 @@
         <v>5543</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3297,13 +3360,13 @@
         <v>10942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3312,19 +3375,19 @@
         <v>16486</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>349</v>
@@ -3333,13 +3396,13 @@
         <v>364421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>349</v>
@@ -3348,13 +3411,13 @@
         <v>376341</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7">
         <v>698</v>
@@ -3363,13 +3426,13 @@
         <v>740761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3447,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3399,13 +3462,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3414,18 +3477,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3437,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3452,13 +3515,13 @@
         <v>1053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3467,19 +3530,19 @@
         <v>1053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>212</v>
@@ -3488,13 +3551,13 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -3503,13 +3566,13 @@
         <v>217534</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M17" s="7">
         <v>434</v>
@@ -3518,13 +3581,13 @@
         <v>428755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3602,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3554,13 +3617,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3569,18 +3632,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3592,13 +3655,13 @@
         <v>4942</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3607,13 +3670,13 @@
         <v>3516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -3622,19 +3685,19 @@
         <v>8458</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>254</v>
@@ -3643,13 +3706,13 @@
         <v>258181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -3658,13 +3721,13 @@
         <v>269599</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>514</v>
@@ -3673,13 +3736,13 @@
         <v>527780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3757,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3709,13 +3772,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3724,18 +3787,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3747,13 +3810,13 @@
         <v>9081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3762,13 +3825,13 @@
         <v>9013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -3777,19 +3840,19 @@
         <v>18094</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>572</v>
@@ -3798,13 +3861,13 @@
         <v>647477</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>638</v>
@@ -3813,13 +3876,13 @@
         <v>682281</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>1210</v>
@@ -3828,13 +3891,13 @@
         <v>1329758</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3912,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -3864,13 +3927,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -3879,18 +3942,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3902,13 +3965,13 @@
         <v>5440</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3917,13 +3980,13 @@
         <v>10943</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3932,19 +3995,19 @@
         <v>16383</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>746</v>
@@ -3953,13 +4016,13 @@
         <v>773143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H26" s="7">
         <v>746</v>
@@ -3968,13 +4031,13 @@
         <v>815224</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>1492</v>
@@ -3983,13 +4046,13 @@
         <v>1588367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4067,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4019,13 +4082,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4034,13 +4097,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4120,13 @@
         <v>33533</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H28" s="7">
         <v>40</v>
@@ -4072,13 +4135,13 @@
         <v>45950</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M28" s="7">
         <v>70</v>
@@ -4087,19 +4150,19 @@
         <v>79483</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>3201</v>
@@ -4108,13 +4171,13 @@
         <v>3360817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="H29" s="7">
         <v>3298</v>
@@ -4123,13 +4186,13 @@
         <v>3498592</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>6499</v>
@@ -4138,13 +4201,13 @@
         <v>6859409</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4222,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4174,13 +4237,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4189,18 +4252,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
